--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sdc2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="H2">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="I2">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="J2">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.737936333333334</v>
+        <v>2.033666</v>
       </c>
       <c r="N2">
-        <v>5.213809</v>
+        <v>6.100998000000001</v>
       </c>
       <c r="O2">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="P2">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="Q2">
-        <v>3.908332633483778</v>
+        <v>3.714625170956</v>
       </c>
       <c r="R2">
-        <v>35.174993701354</v>
+        <v>33.431626538604</v>
       </c>
       <c r="S2">
-        <v>0.0004965764481175885</v>
+        <v>0.0003674830075613894</v>
       </c>
       <c r="T2">
-        <v>0.0004965764481175884</v>
+        <v>0.0003674830075613894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="H3">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="I3">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="J3">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>10.574625</v>
       </c>
       <c r="O3">
-        <v>0.02805213599681367</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="P3">
-        <v>0.02805213599681368</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="Q3">
-        <v>7.926863445583334</v>
+        <v>6.438416829249999</v>
       </c>
       <c r="R3">
-        <v>71.34177101025</v>
+        <v>57.94575146325</v>
       </c>
       <c r="S3">
-        <v>0.001007154217324695</v>
+        <v>0.0006369441522245797</v>
       </c>
       <c r="T3">
-        <v>0.001007154217324695</v>
+        <v>0.0006369441522245798</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="H4">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="I4">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="J4">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.07777633333333</v>
+        <v>82.164378</v>
       </c>
       <c r="N4">
-        <v>147.233329</v>
+        <v>246.493134</v>
       </c>
       <c r="O4">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="P4">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="Q4">
-        <v>110.3678374998305</v>
+        <v>150.078659265948</v>
       </c>
       <c r="R4">
-        <v>993.310537498474</v>
+        <v>1350.707933393532</v>
       </c>
       <c r="S4">
-        <v>0.014022877239912</v>
+        <v>0.01484708538267879</v>
       </c>
       <c r="T4">
-        <v>0.01402287723991199</v>
+        <v>0.01484708538267879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="H5">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="I5">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="J5">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.909715333333333</v>
+        <v>1.586462</v>
       </c>
       <c r="N5">
-        <v>5.729146</v>
+        <v>4.759386</v>
       </c>
       <c r="O5">
-        <v>0.01519815433054137</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="P5">
-        <v>0.01519815433054138</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="Q5">
-        <v>4.294635318208445</v>
+        <v>2.897777549492</v>
       </c>
       <c r="R5">
-        <v>38.651717863876</v>
+        <v>26.079997945428</v>
       </c>
       <c r="S5">
-        <v>0.0005456584565002457</v>
+        <v>0.0002866733412182024</v>
       </c>
       <c r="T5">
-        <v>0.0005456584565002456</v>
+        <v>0.0002866733412182024</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="H6">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="I6">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="J6">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.40412133333334</v>
+        <v>65.38769933333333</v>
       </c>
       <c r="N6">
-        <v>208.212364</v>
+        <v>196.163098</v>
       </c>
       <c r="O6">
-        <v>0.5523412462518597</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="P6">
-        <v>0.5523412462518598</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="Q6">
-        <v>156.0784403333538</v>
+        <v>119.4349484204893</v>
       </c>
       <c r="R6">
-        <v>1404.705963000184</v>
+        <v>1074.914535784404</v>
       </c>
       <c r="S6">
-        <v>0.01983067583973376</v>
+        <v>0.01181554316615078</v>
       </c>
       <c r="T6">
-        <v>0.01983067583973376</v>
+        <v>0.01181554316615078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="H7">
         <v>132.870179</v>
       </c>
       <c r="I7">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="J7">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.737936333333334</v>
+        <v>2.033666</v>
       </c>
       <c r="N7">
-        <v>5.213809</v>
+        <v>6.100998000000001</v>
       </c>
       <c r="O7">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="P7">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="Q7">
-        <v>76.97330390020122</v>
+        <v>90.07118848207135</v>
       </c>
       <c r="R7">
-        <v>692.759735101811</v>
+        <v>810.6406963386421</v>
       </c>
       <c r="S7">
-        <v>0.009779907043522702</v>
+        <v>0.008910624818035623</v>
       </c>
       <c r="T7">
-        <v>0.009779907043522702</v>
+        <v>0.008910624818035623</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="H8">
         <v>132.870179</v>
       </c>
       <c r="I8">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="J8">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>10.574625</v>
       </c>
       <c r="O8">
-        <v>0.02805213599681367</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="P8">
-        <v>0.02805213599681368</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="Q8">
-        <v>156.1169240675416</v>
+        <v>156.1169240675417</v>
       </c>
       <c r="R8">
         <v>1405.052316607875</v>
       </c>
       <c r="S8">
-        <v>0.01983556542253681</v>
+        <v>0.0154444430184078</v>
       </c>
       <c r="T8">
-        <v>0.01983556542253681</v>
+        <v>0.0154444430184078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="H9">
         <v>132.870179</v>
       </c>
       <c r="I9">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="J9">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>49.07777633333333</v>
+        <v>82.164378</v>
       </c>
       <c r="N9">
-        <v>147.233329</v>
+        <v>246.493134</v>
       </c>
       <c r="O9">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="P9">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="Q9">
-        <v>2173.657642110654</v>
+        <v>3639.065204094554</v>
       </c>
       <c r="R9">
-        <v>19562.91877899589</v>
+        <v>32751.58683685099</v>
       </c>
       <c r="S9">
-        <v>0.2761758766629915</v>
+        <v>0.3600079589102931</v>
       </c>
       <c r="T9">
-        <v>0.2761758766629915</v>
+        <v>0.3600079589102931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="H10">
         <v>132.870179</v>
       </c>
       <c r="I10">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="J10">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.909715333333333</v>
+        <v>1.586462</v>
       </c>
       <c r="N10">
-        <v>5.729146</v>
+        <v>4.759386</v>
       </c>
       <c r="O10">
-        <v>0.01519815433054137</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="P10">
-        <v>0.01519815433054138</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="Q10">
-        <v>84.58140605968154</v>
+        <v>70.26449663889935</v>
       </c>
       <c r="R10">
-        <v>761.2326545371338</v>
+        <v>632.380469750094</v>
       </c>
       <c r="S10">
-        <v>0.01074656078095111</v>
+        <v>0.006951174711122884</v>
       </c>
       <c r="T10">
-        <v>0.01074656078095111</v>
+        <v>0.006951174711122883</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="H11">
         <v>132.870179</v>
       </c>
       <c r="I11">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="J11">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.40412133333334</v>
+        <v>65.38769933333333</v>
       </c>
       <c r="N11">
-        <v>208.212364</v>
+        <v>196.163098</v>
       </c>
       <c r="O11">
-        <v>0.5523412462518597</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="P11">
-        <v>0.5523412462518598</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="Q11">
-        <v>3073.912674965906</v>
+        <v>2896.025104939394</v>
       </c>
       <c r="R11">
-        <v>27665.21407469315</v>
+        <v>26064.22594445454</v>
       </c>
       <c r="S11">
-        <v>0.3905585274090617</v>
+        <v>0.2864999741716935</v>
       </c>
       <c r="T11">
-        <v>0.3905585274090617</v>
+        <v>0.2864999741716935</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="H12">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="I12">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="J12">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.737936333333334</v>
+        <v>2.033666</v>
       </c>
       <c r="N12">
-        <v>5.213809</v>
+        <v>6.100998000000001</v>
       </c>
       <c r="O12">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="P12">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="Q12">
-        <v>27.97664620925078</v>
+        <v>38.86105786164267</v>
       </c>
       <c r="R12">
-        <v>251.789815883257</v>
+        <v>349.749520754784</v>
       </c>
       <c r="S12">
-        <v>0.003554596015142325</v>
+        <v>0.003844473604409003</v>
       </c>
       <c r="T12">
-        <v>0.003554596015142325</v>
+        <v>0.003844473604409003</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="H13">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="I13">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="J13">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>10.574625</v>
       </c>
       <c r="O13">
-        <v>0.02805213599681367</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="P13">
-        <v>0.02805213599681368</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="Q13">
-        <v>56.74211357195833</v>
+        <v>67.35637579133333</v>
       </c>
       <c r="R13">
-        <v>510.6790221476249</v>
+        <v>606.207382122</v>
       </c>
       <c r="S13">
-        <v>0.007209416356952163</v>
+        <v>0.006663478120960464</v>
       </c>
       <c r="T13">
-        <v>0.007209416356952164</v>
+        <v>0.006663478120960464</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="H14">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="I14">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="J14">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>49.07777633333333</v>
+        <v>82.164378</v>
       </c>
       <c r="N14">
-        <v>147.233329</v>
+        <v>246.493134</v>
       </c>
       <c r="O14">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="P14">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="Q14">
-        <v>790.0356065293573</v>
+        <v>1570.068363056608</v>
       </c>
       <c r="R14">
-        <v>7110.320458764217</v>
+        <v>14130.61526750947</v>
       </c>
       <c r="S14">
-        <v>0.1003786300110991</v>
+        <v>0.1553248087167134</v>
       </c>
       <c r="T14">
-        <v>0.1003786300110991</v>
+        <v>0.1553248087167134</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="H15">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="I15">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="J15">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.909715333333333</v>
+        <v>1.586462</v>
       </c>
       <c r="N15">
-        <v>5.729146</v>
+        <v>4.759386</v>
       </c>
       <c r="O15">
-        <v>0.01519815433054137</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="P15">
-        <v>0.01519815433054138</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="Q15">
-        <v>30.74188001960644</v>
+        <v>30.31549506029867</v>
       </c>
       <c r="R15">
-        <v>276.676920176458</v>
+        <v>272.839455542688</v>
       </c>
       <c r="S15">
-        <v>0.003905935093090021</v>
+        <v>0.002999072258373753</v>
       </c>
       <c r="T15">
-        <v>0.003905935093090021</v>
+        <v>0.002999072258373752</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.10886933333333</v>
+      </c>
+      <c r="H16">
+        <v>57.326608</v>
+      </c>
+      <c r="I16">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="J16">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>65.38769933333333</v>
+      </c>
+      <c r="N16">
+        <v>196.163098</v>
+      </c>
+      <c r="O16">
+        <v>0.422682181153253</v>
+      </c>
+      <c r="P16">
+        <v>0.422682181153253</v>
+      </c>
+      <c r="Q16">
+        <v>1249.485002567954</v>
+      </c>
+      <c r="R16">
+        <v>11245.36502311158</v>
+      </c>
+      <c r="S16">
+        <v>0.123609916348128</v>
+      </c>
+      <c r="T16">
+        <v>0.123609916348128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.350957</v>
+      </c>
+      <c r="I17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="J17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.033666</v>
+      </c>
+      <c r="N17">
+        <v>6.100998000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.01314611753252202</v>
+      </c>
+      <c r="P17">
+        <v>0.01314611753252202</v>
+      </c>
+      <c r="Q17">
+        <v>0.2379097727873333</v>
+      </c>
+      <c r="R17">
+        <v>2.141187955086</v>
+      </c>
+      <c r="S17">
+        <v>2.353610251600043E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.353610251600043E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.350957</v>
+      </c>
+      <c r="I18">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="J18">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.524875</v>
+      </c>
+      <c r="N18">
+        <v>10.574625</v>
+      </c>
+      <c r="O18">
+        <v>0.02278565951215614</v>
+      </c>
+      <c r="P18">
+        <v>0.02278565951215614</v>
+      </c>
+      <c r="Q18">
+        <v>0.4123598517916666</v>
+      </c>
+      <c r="R18">
+        <v>3.711238666124999</v>
+      </c>
+      <c r="S18">
+        <v>4.079422056330144E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.079422056330145E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>16.09762433333333</v>
-      </c>
-      <c r="H16">
-        <v>48.292873</v>
-      </c>
-      <c r="I16">
-        <v>0.2570006204793479</v>
-      </c>
-      <c r="J16">
-        <v>0.2570006204793479</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>69.40412133333334</v>
-      </c>
-      <c r="N16">
-        <v>208.212364</v>
-      </c>
-      <c r="O16">
-        <v>0.5523412462518597</v>
-      </c>
-      <c r="P16">
-        <v>0.5523412462518598</v>
-      </c>
-      <c r="Q16">
-        <v>1117.241472409086</v>
-      </c>
-      <c r="R16">
-        <v>10055.17325168177</v>
-      </c>
-      <c r="S16">
-        <v>0.1419520430030642</v>
-      </c>
-      <c r="T16">
-        <v>0.1419520430030642</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.350957</v>
+      </c>
+      <c r="I19">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="J19">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>82.164378</v>
+      </c>
+      <c r="N19">
+        <v>246.493134</v>
+      </c>
+      <c r="O19">
+        <v>0.5311307609875792</v>
+      </c>
+      <c r="P19">
+        <v>0.5311307609875792</v>
+      </c>
+      <c r="Q19">
+        <v>9.612054536581999</v>
+      </c>
+      <c r="R19">
+        <v>86.50849082923799</v>
+      </c>
+      <c r="S19">
+        <v>0.0009509079778938184</v>
+      </c>
+      <c r="T19">
+        <v>0.0009509079778938185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.350957</v>
+      </c>
+      <c r="I20">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="J20">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.586462</v>
+      </c>
+      <c r="N20">
+        <v>4.759386</v>
+      </c>
+      <c r="O20">
+        <v>0.01025528081448967</v>
+      </c>
+      <c r="P20">
+        <v>0.01025528081448967</v>
+      </c>
+      <c r="Q20">
+        <v>0.1855933147113333</v>
+      </c>
+      <c r="R20">
+        <v>1.670339832402</v>
+      </c>
+      <c r="S20">
+        <v>1.836050377482786E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.836050377482786E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.350957</v>
+      </c>
+      <c r="I21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="J21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>65.38769933333333</v>
+      </c>
+      <c r="N21">
+        <v>196.163098</v>
+      </c>
+      <c r="O21">
+        <v>0.422682181153253</v>
+      </c>
+      <c r="P21">
+        <v>0.422682181153253</v>
+      </c>
+      <c r="Q21">
+        <v>7.649423598309554</v>
+      </c>
+      <c r="R21">
+        <v>68.844812384786</v>
+      </c>
+      <c r="S21">
+        <v>0.0007567474672806381</v>
+      </c>
+      <c r="T21">
+        <v>0.0007567474672806381</v>
       </c>
     </row>
   </sheetData>
